--- a/LiveTracking/HeatMap/testData.xlsx
+++ b/LiveTracking/HeatMap/testData.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26731"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26827"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\asus\Desktop\SENIOR PROJECT\Repository\In-Store-Tracker\LiveTracking\HeatMap\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\senti\Desktop\Senior Project\Repo\In-Store-Tracker\LiveTracking\HeatMap\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{24694562-F100-4A9F-AEC3-D0F0676F2AE1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C927EEE6-94E0-4859-9BD2-B10FC0E8045A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="test" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
   <si>
     <t>A</t>
   </si>
@@ -38,6 +38,12 @@
   </si>
   <si>
     <t>c</t>
+  </si>
+  <si>
+    <t>D</t>
+  </si>
+  <si>
+    <t>d</t>
   </si>
 </sst>
 </file>
@@ -878,15 +884,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D4"/>
+  <dimension ref="A1:E5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+      <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B1" t="s">
         <v>0</v>
       </c>
@@ -896,13 +902,16 @@
       <c r="D1" t="s">
         <v>2</v>
       </c>
+      <c r="E1" t="s">
+        <v>6</v>
+      </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>3</v>
       </c>
       <c r="B2">
-        <v>5</v>
+        <v>26</v>
       </c>
       <c r="C2">
         <v>3</v>
@@ -910,8 +919,11 @@
       <c r="D2">
         <v>7</v>
       </c>
+      <c r="E2">
+        <v>16</v>
+      </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>4</v>
       </c>
@@ -919,24 +931,47 @@
         <v>2</v>
       </c>
       <c r="C3">
-        <v>6</v>
+        <v>19</v>
       </c>
       <c r="D3">
         <v>9</v>
       </c>
+      <c r="E3">
+        <v>9</v>
+      </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>5</v>
       </c>
       <c r="B4">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="C4">
         <v>2</v>
       </c>
       <c r="D4">
         <v>14</v>
+      </c>
+      <c r="E4">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>7</v>
+      </c>
+      <c r="B5">
+        <v>9</v>
+      </c>
+      <c r="C5">
+        <v>35</v>
+      </c>
+      <c r="D5">
+        <v>8</v>
+      </c>
+      <c r="E5">
+        <v>44</v>
       </c>
     </row>
   </sheetData>
